--- a/all_results.xlsx
+++ b/all_results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="53">
   <si>
     <t>knn3</t>
   </si>
@@ -169,6 +169,15 @@
   </si>
   <si>
     <t>hardvote knn5 svmLin gNB</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>softvote svmLin knn5 RF gNB</t>
+  </si>
+  <si>
+    <t>HCDF+brightness</t>
   </si>
 </sst>
 </file>
@@ -975,10 +984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M224"/>
+  <dimension ref="A1:O224"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,11 +1000,11 @@
     <col min="6" max="6" width="12.28515625" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1"/>
-    <col min="12" max="12" width="31" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="14" max="14" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -1018,13 +1027,19 @@
         <v>40</v>
       </c>
       <c r="J1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" t="s">
         <v>49</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1053,16 +1068,22 @@
         <v>0.41099999999999998</v>
       </c>
       <c r="J2">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="K2">
+        <v>0.313</v>
+      </c>
+      <c r="L2">
         <v>0.31</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>2</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>0.55900000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1091,16 +1112,22 @@
         <v>0.436</v>
       </c>
       <c r="J3">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="K3">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="L3">
         <v>0.30199999999999999</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>3</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>0.59399999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1129,16 +1156,22 @@
         <v>0.42599999999999999</v>
       </c>
       <c r="J4">
+        <v>0.375</v>
+      </c>
+      <c r="K4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L4">
         <v>0.29299999999999998</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>4</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>0.622</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1167,16 +1200,22 @@
         <v>0.47699999999999998</v>
       </c>
       <c r="J5">
+        <v>0.4</v>
+      </c>
+      <c r="K5">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="L5">
         <v>0.34399999999999997</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>41</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>0.38300000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1205,16 +1244,22 @@
         <v>0.378</v>
       </c>
       <c r="J6">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="K6">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="L6">
         <v>0.26300000000000001</v>
       </c>
-      <c r="L6" t="s">
+      <c r="N6" t="s">
         <v>10</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>0.442</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1243,16 +1288,22 @@
         <v>0.38700000000000001</v>
       </c>
       <c r="J7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K7">
+        <v>0.245</v>
+      </c>
+      <c r="L7">
         <v>0.27400000000000002</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>11</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>0.39700000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1281,16 +1332,22 @@
         <v>0.38400000000000001</v>
       </c>
       <c r="J8">
+        <v>0.3</v>
+      </c>
+      <c r="K8">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="L8">
         <v>0.27400000000000002</v>
       </c>
-      <c r="L8" t="s">
+      <c r="N8" t="s">
         <v>42</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>0.314</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1319,16 +1376,22 @@
         <v>0.38800000000000001</v>
       </c>
       <c r="J9">
+        <v>0.316</v>
+      </c>
+      <c r="K9">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="L9">
         <v>0.26600000000000001</v>
       </c>
-      <c r="L9" t="s">
+      <c r="N9" t="s">
         <v>13</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>0.47799999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1357,16 +1420,22 @@
         <v>0.44900000000000001</v>
       </c>
       <c r="J10">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="K10">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="L10">
         <v>0.26700000000000002</v>
       </c>
-      <c r="L10" t="s">
+      <c r="N10" t="s">
         <v>43</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>0.32600000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1395,16 +1464,22 @@
         <v>0.44600000000000001</v>
       </c>
       <c r="J11">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="K11">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="L11">
         <v>0.28799999999999998</v>
       </c>
-      <c r="L11" t="s">
+      <c r="N11" t="s">
         <v>44</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>0.36399999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1433,16 +1508,22 @@
         <v>0.37</v>
       </c>
       <c r="J12">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="K12">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="L12">
         <v>0.29899999999999999</v>
       </c>
-      <c r="L12" t="s">
+      <c r="N12" t="s">
         <v>22</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1471,16 +1552,22 @@
         <v>0.379</v>
       </c>
       <c r="J13">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="K13">
+        <v>0.249</v>
+      </c>
+      <c r="L13">
         <v>0.26700000000000002</v>
       </c>
-      <c r="L13" t="s">
+      <c r="N13" t="s">
         <v>45</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>0.315</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1509,16 +1596,22 @@
         <v>0.39200000000000002</v>
       </c>
       <c r="J14">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="K14">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="L14">
         <v>0.26100000000000001</v>
       </c>
-      <c r="L14" t="s">
+      <c r="N14" t="s">
         <v>46</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>0.32</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1547,16 +1640,22 @@
         <v>0.378</v>
       </c>
       <c r="J15">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="K15">
+        <v>0.26</v>
+      </c>
+      <c r="L15">
         <v>0.27300000000000002</v>
       </c>
-      <c r="L15" t="s">
+      <c r="N15" t="s">
         <v>47</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>0.307</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1585,16 +1684,22 @@
         <v>0.44400000000000001</v>
       </c>
       <c r="J16">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="K16">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="L16">
         <v>0.29399999999999998</v>
       </c>
-      <c r="L16" t="s">
+      <c r="N16" t="s">
         <v>48</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>0.316</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1623,10 +1728,16 @@
         <v>0.379</v>
       </c>
       <c r="J17">
+        <v>0.313</v>
+      </c>
+      <c r="K17">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="L17">
         <v>0.27</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1655,10 +1766,16 @@
         <v>0.38100000000000001</v>
       </c>
       <c r="J18">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="K18">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="L18">
         <v>0.28699999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1687,10 +1804,16 @@
         <v>0.38100000000000001</v>
       </c>
       <c r="J19">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="K19">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="L19">
         <v>0.27600000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1719,10 +1842,16 @@
         <v>0.39900000000000002</v>
       </c>
       <c r="J20">
+        <v>0.312</v>
+      </c>
+      <c r="K20">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="L20">
         <v>0.28299999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1751,10 +1880,16 @@
         <v>0.39100000000000001</v>
       </c>
       <c r="J21">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="K21">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="L21">
         <v>0.26200000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1783,10 +1918,16 @@
         <v>0.39600000000000002</v>
       </c>
       <c r="J22">
+        <v>0.317</v>
+      </c>
+      <c r="K22">
+        <v>0.247</v>
+      </c>
+      <c r="L22">
         <v>0.27400000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1815,10 +1956,16 @@
         <v>0.45700000000000002</v>
       </c>
       <c r="J23">
+        <v>0.309</v>
+      </c>
+      <c r="K23">
+        <v>0.249</v>
+      </c>
+      <c r="L23">
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1847,10 +1994,16 @@
         <v>0.51500000000000001</v>
       </c>
       <c r="J24">
+        <v>0.378</v>
+      </c>
+      <c r="K24">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="L24">
         <v>0.48299999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1879,10 +2032,16 @@
         <v>0.41699999999999998</v>
       </c>
       <c r="J25">
+        <v>0.312</v>
+      </c>
+      <c r="K25">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="L25">
         <v>0.27400000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1911,10 +2070,16 @@
         <v>0.53700000000000003</v>
       </c>
       <c r="J26">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="K26">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="L26">
         <v>0.40899999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1943,10 +2108,16 @@
         <v>0.50800000000000001</v>
       </c>
       <c r="J27">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="K27">
+        <v>0.252</v>
+      </c>
+      <c r="L27">
         <v>0.26100000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -1975,10 +2146,16 @@
         <v>0.55700000000000005</v>
       </c>
       <c r="J28">
+        <v>0.44</v>
+      </c>
+      <c r="K28">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="L28">
         <v>0.49399999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -2007,10 +2184,16 @@
         <v>0.59399999999999997</v>
       </c>
       <c r="J29">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="K29">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="L29">
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -2039,10 +2222,16 @@
         <v>0.59699999999999998</v>
       </c>
       <c r="J30">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="K30">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="L30">
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -2071,10 +2260,16 @@
         <v>0.61799999999999999</v>
       </c>
       <c r="J31">
+        <v>0.54</v>
+      </c>
+      <c r="K31">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="L31">
         <v>0.58399999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -2103,10 +2298,16 @@
         <v>0.66300000000000003</v>
       </c>
       <c r="J32">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="K32">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="L32">
         <v>0.61799999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>38</v>
       </c>
@@ -2115,7 +2316,7 @@
         <v>0.34300000000000003</v>
       </c>
       <c r="D33">
-        <f t="shared" ref="D33:M33" si="0">MIN(D2:D32)</f>
+        <f t="shared" ref="D33:O33" si="0">MIN(D2:D32)</f>
         <v>0.33300000000000002</v>
       </c>
       <c r="E33">
@@ -2140,23 +2341,30 @@
       </c>
       <c r="J33">
         <f t="shared" si="0"/>
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="0"/>
+        <v>0.245</v>
+      </c>
+      <c r="L33">
+        <f>MIN(L2:L32)</f>
         <v>0.26100000000000001</v>
       </c>
-      <c r="M33">
+      <c r="O33">
         <f t="shared" si="0"/>
         <v>0.307</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>39</v>
       </c>
-      <c r="C34" t="str">
-        <f>LOOKUP(C33,C2:C32,$B$2:$B$32)</f>
-        <v>mfcc hcdf</v>
+      <c r="C34" t="s">
+        <v>9</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" ref="D34:J34" si="1">LOOKUP(D33,D2:D32,$B$2:$B$32)</f>
+        <f t="shared" ref="D34:H34" si="1">LOOKUP(D33,D2:D32,$B$2:$B$32)</f>
         <v>mfcc hcdf</v>
       </c>
       <c r="E34" t="s">
@@ -2177,58 +2385,64 @@
         <v>20</v>
       </c>
       <c r="J34" t="s">
-        <v>15</v>
-      </c>
-      <c r="M34" t="s">
+        <v>12</v>
+      </c>
+      <c r="K34" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" t="s">
+        <v>52</v>
+      </c>
+      <c r="O34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>32</v>
       </c>
@@ -3129,7 +3343,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D32 G2:I32">
+  <conditionalFormatting sqref="C2:D32 G2:K32">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -3141,7 +3355,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D32 G1:I32 M2:M16 J1">
+  <conditionalFormatting sqref="C2:D32 G1:I32 O2:O16 J1:L1 J2:K32">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3153,8 +3367,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D32 G2:J32 M2:M16">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="C2:D32 O2:O16 G2:L32">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/all_results.xlsx
+++ b/all_results.xlsx
@@ -177,14 +177,14 @@
     <t>softvote svmLin knn5 RF gNB</t>
   </si>
   <si>
-    <t>HCDF+brightness</t>
+    <t>hcdf brightness</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,6 +318,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="33">
@@ -661,8 +672,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -984,16 +1003,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O224"/>
+  <dimension ref="A1:T224"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="39.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="12" hidden="1" customWidth="1"/>
@@ -1001,1448 +1020,1485 @@
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
     <col min="14" max="14" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
+    <row r="1" spans="1:20" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O1" t="s">
+      <c r="M1" s="1"/>
+      <c r="T1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>0.34300000000000003</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>0.33300000000000002</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>0.71599999999999997</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>0.81599999999999995</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>0.255</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>0.40400000000000003</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>0.41099999999999998</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>0.34300000000000003</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <v>0.313</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <v>0.31</v>
       </c>
-      <c r="N2" t="s">
+      <c r="M2" s="1"/>
+      <c r="S2" t="s">
         <v>2</v>
       </c>
-      <c r="O2">
+      <c r="T2">
         <v>0.55900000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>0.36</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>0.35699999999999998</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>0.72899999999999998</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>0.80700000000000005</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>0.27600000000000002</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>0.48099999999999998</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>0.436</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>0.33600000000000002</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>0.28899999999999998</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <v>0.30199999999999999</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" s="1"/>
+      <c r="S3" t="s">
         <v>3</v>
       </c>
-      <c r="O3">
+      <c r="T3">
         <v>0.59399999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>0.36199999999999999</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>0.35499999999999998</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>0.71299999999999997</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>0.81200000000000006</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>0.27700000000000002</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>0.437</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>0.42599999999999999</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>0.375</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <v>0.29299999999999998</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" s="1"/>
+      <c r="S4" t="s">
         <v>4</v>
       </c>
-      <c r="O4">
+      <c r="T4">
         <v>0.622</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>0.36699999999999999</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>0.36599999999999999</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>0.78600000000000003</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>0.82899999999999996</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>0.33700000000000002</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>0.38400000000000001</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>0.47699999999999998</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>0.4</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <v>0.35699999999999998</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <v>0.34399999999999997</v>
       </c>
-      <c r="N5" t="s">
+      <c r="M5" s="1"/>
+      <c r="S5" t="s">
         <v>41</v>
       </c>
-      <c r="O5">
+      <c r="T5">
         <v>0.38300000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>0.371</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>0.38400000000000001</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>0.73499999999999999</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>0.80800000000000005</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>0.28399999999999997</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>0.42799999999999999</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>0.378</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>0.29199999999999998</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <v>0.25700000000000001</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="1">
         <v>0.26300000000000001</v>
       </c>
-      <c r="N6" t="s">
+      <c r="M6" s="1"/>
+      <c r="S6" t="s">
         <v>10</v>
       </c>
-      <c r="O6">
+      <c r="T6">
         <v>0.442</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>0.375</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>0.39300000000000002</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>0.752</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>0.82599999999999996</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>0.308</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>0.44800000000000001</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>0.38700000000000001</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
         <v>0.245</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="1">
         <v>0.27400000000000002</v>
       </c>
-      <c r="N7" t="s">
+      <c r="M7" s="1"/>
+      <c r="S7" t="s">
         <v>11</v>
       </c>
-      <c r="O7">
+      <c r="T7">
         <v>0.39700000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>0.38700000000000001</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>0.39500000000000002</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>0.73799999999999999</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>0.82299999999999995</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>0.31900000000000001</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>0.45600000000000002</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>0.38400000000000001</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>0.3</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="1">
         <v>0.25600000000000001</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="1">
         <v>0.27400000000000002</v>
       </c>
-      <c r="N8" t="s">
+      <c r="M8" s="1"/>
+      <c r="S8" t="s">
         <v>42</v>
       </c>
-      <c r="O8">
+      <c r="T8">
         <v>0.314</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>0.39</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>0.39400000000000002</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>0.73099999999999998</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>0.81899999999999995</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>0.30399999999999999</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>0.47399999999999998</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>0.38800000000000001</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <v>0.316</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="1">
         <v>0.25700000000000001</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="1">
         <v>0.26600000000000001</v>
       </c>
-      <c r="N9" t="s">
+      <c r="M9" s="1"/>
+      <c r="S9" t="s">
         <v>13</v>
       </c>
-      <c r="O9">
+      <c r="T9">
         <v>0.47799999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>0.39200000000000002</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>0.378</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>0.47599999999999998</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>0.81399999999999995</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>0.34599999999999997</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>0.44500000000000001</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>0.44900000000000001</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <v>0.28799999999999998</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="1">
         <v>0.26500000000000001</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="1">
         <v>0.26700000000000002</v>
       </c>
-      <c r="N10" t="s">
+      <c r="M10" s="1"/>
+      <c r="S10" t="s">
         <v>43</v>
       </c>
-      <c r="O10">
+      <c r="T10">
         <v>0.32600000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>0.40600000000000003</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>0.38900000000000001</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>0.746</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>0.81200000000000006</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>0.316</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>0.46500000000000002</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <v>0.44600000000000001</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <v>0.33700000000000002</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="1">
         <v>0.28899999999999998</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="1">
         <v>0.28799999999999998</v>
       </c>
-      <c r="N11" t="s">
+      <c r="M11" s="1"/>
+      <c r="S11" t="s">
         <v>44</v>
       </c>
-      <c r="O11">
+      <c r="T11">
         <v>0.36399999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>0.40799999999999997</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>0.4</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>0.74199999999999999</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>0.79900000000000004</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>0.32800000000000001</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>0.46899999999999997</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <v>0.37</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="1">
         <v>0.30599999999999999</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="1">
         <v>0.27800000000000002</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="1">
         <v>0.29899999999999999</v>
       </c>
-      <c r="N12" t="s">
+      <c r="M12" s="1"/>
+      <c r="S12" t="s">
         <v>22</v>
       </c>
-      <c r="O12">
+      <c r="T12">
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>0.40799999999999997</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>0.40300000000000002</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>0.72799999999999998</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>0.80500000000000005</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>0.307</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>0.48799999999999999</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="1">
         <v>0.379</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="1">
         <v>0.33400000000000002</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="1">
         <v>0.249</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="1">
         <v>0.26700000000000002</v>
       </c>
-      <c r="N13" t="s">
+      <c r="M13" s="1"/>
+      <c r="S13" t="s">
         <v>45</v>
       </c>
-      <c r="O13">
+      <c r="T13">
         <v>0.315</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>0.42099999999999999</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>0.41199999999999998</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>0.48499999999999999</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>0.83699999999999997</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>0.34599999999999997</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>0.47499999999999998</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="1">
         <v>0.39200000000000002</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="1">
         <v>0.30299999999999999</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="1">
         <v>0.26300000000000001</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="1">
         <v>0.26100000000000001</v>
       </c>
-      <c r="N14" t="s">
+      <c r="M14" s="1"/>
+      <c r="S14" t="s">
         <v>46</v>
       </c>
-      <c r="O14">
+      <c r="T14">
         <v>0.32</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>0.42499999999999999</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>0.42899999999999999</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>0.72499999999999998</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>0.82099999999999995</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>0.316</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>0.496</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="1">
         <v>0.378</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="1">
         <v>0.30599999999999999</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="1">
         <v>0.26</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="1">
         <v>0.27300000000000002</v>
       </c>
-      <c r="N15" t="s">
+      <c r="M15" s="1"/>
+      <c r="S15" t="s">
         <v>47</v>
       </c>
-      <c r="O15">
+      <c r="T15">
         <v>0.307</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>0.432</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>0.438</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>0.40500000000000003</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>0.79800000000000004</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>0.371</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>0.43</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="1">
         <v>0.44400000000000001</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="1">
         <v>0.29099999999999998</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="1">
         <v>0.27900000000000003</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="1">
         <v>0.29399999999999998</v>
       </c>
-      <c r="N16" t="s">
+      <c r="M16" s="1"/>
+      <c r="S16" t="s">
         <v>48</v>
       </c>
-      <c r="O16">
+      <c r="T16">
         <v>0.316</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>0.432</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>0.433</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>0.752</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>0.79500000000000004</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>0.314</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>0.49399999999999999</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="1">
         <v>0.379</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="1">
         <v>0.313</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="1">
         <v>0.26700000000000002</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="1">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>0.433</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>0.442</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>0.76</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>0.80400000000000005</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>0.33800000000000002</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>0.499</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="1">
         <v>0.38100000000000001</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="1">
         <v>0.32700000000000001</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="1">
         <v>0.25700000000000001</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="1">
         <v>0.28699999999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>0.437</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>0.42299999999999999</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>0.748</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>0.78900000000000003</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>0.33700000000000002</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <v>0.496</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="1">
         <v>0.38100000000000001</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="1">
         <v>0.29599999999999999</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="1">
         <v>0.25600000000000001</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="1">
         <v>0.27600000000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>0.438</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>0.43099999999999999</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>0.747</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>0.80700000000000005</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>0.34499999999999997</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <v>0.496</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="1">
         <v>0.39900000000000002</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="1">
         <v>0.312</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="1">
         <v>0.26300000000000001</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="1">
         <v>0.28299999999999997</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>0.439</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>0.434</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>0.46700000000000003</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>0.80800000000000005</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <v>0.34799999999999998</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="1">
         <v>0.46700000000000003</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="1">
         <v>0.39100000000000001</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="1">
         <v>0.29099999999999998</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="1">
         <v>0.26300000000000001</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="1">
         <v>0.26200000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>0.441</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>0.443</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>0.48099999999999998</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>0.83499999999999996</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
         <v>0.34300000000000003</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
         <v>0.48299999999999998</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="1">
         <v>0.39600000000000002</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="1">
         <v>0.317</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="1">
         <v>0.247</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="1">
         <v>0.27400000000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>0.45400000000000001</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>0.45</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>0.40300000000000002</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>0.82599999999999996</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <v>0.38</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <v>0.47199999999999998</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="1">
         <v>0.45700000000000002</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="1">
         <v>0.309</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="1">
         <v>0.249</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="1">
         <v>0.27800000000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>0.45500000000000002</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>0.45200000000000001</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>0.48199999999999998</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <v>0.83499999999999996</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="1">
         <v>0.39</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="1">
         <v>0.501</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="1">
         <v>0.51500000000000001</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="1">
         <v>0.378</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="1">
         <v>0.47899999999999998</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="1">
         <v>0.48299999999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>0.45600000000000002</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>0.44700000000000001</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>0.48</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>0.81699999999999995</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <v>0.34</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="1">
         <v>0.48499999999999999</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="1">
         <v>0.41699999999999998</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="1">
         <v>0.312</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="1">
         <v>0.25900000000000001</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="1">
         <v>0.27400000000000002</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>0.50700000000000001</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>0.50900000000000001</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>0.52700000000000002</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>0.82299999999999995</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
         <v>0.442</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="1">
         <v>0.58299999999999996</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="1">
         <v>0.53700000000000003</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="1">
         <v>0.42299999999999999</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="1">
         <v>0.39400000000000002</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="1">
         <v>0.40899999999999997</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>0.52900000000000003</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>0.51600000000000001</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>0.46400000000000002</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <v>0.59299999999999997</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="1">
         <v>0.44700000000000001</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="1">
         <v>0.52</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="1">
         <v>0.50800000000000001</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="1">
         <v>0.32600000000000001</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="1">
         <v>0.252</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="1">
         <v>0.26100000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>0.53400000000000003</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>0.51100000000000001</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>0.5</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <v>0.56799999999999995</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="1">
         <v>0.47799999999999998</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="1">
         <v>0.53300000000000003</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="1">
         <v>0.55700000000000005</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="1">
         <v>0.44</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="1">
         <v>0.49099999999999999</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="1">
         <v>0.49399999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>0.59599999999999997</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>0.59199999999999997</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>0.55900000000000005</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
         <v>0.58099999999999996</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="1">
         <v>0.56200000000000006</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="1">
         <v>0.6</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="1">
         <v>0.59399999999999997</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="1">
         <v>0.50700000000000001</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="1">
         <v>0.56699999999999995</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="1">
         <v>0.55800000000000005</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>0.60499999999999998</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>0.57799999999999996</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>0.60499999999999998</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <v>0.82399999999999995</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="1">
         <v>0.55800000000000005</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="1">
         <v>0.65700000000000003</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="1">
         <v>0.59699999999999998</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="1">
         <v>0.53300000000000003</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="1">
         <v>0.55800000000000005</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="1">
         <v>0.55300000000000005</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>0.63600000000000001</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>0.60199999999999998</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>0.57599999999999996</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="1">
         <v>0.59799999999999998</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="1">
         <v>0.59</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="1">
         <v>0.64900000000000002</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="1">
         <v>0.61799999999999999</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="1">
         <v>0.54</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="1">
         <v>0.57399999999999995</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="1">
         <v>0.58399999999999996</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>0.65300000000000002</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>0.624</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <v>0.60299999999999998</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="1">
         <v>0.61199999999999999</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="1">
         <v>0.628</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="1">
         <v>0.65300000000000002</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="1">
         <v>0.66300000000000003</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="1">
         <v>0.55900000000000005</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="1">
         <v>0.61299999999999999</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="1">
         <v>0.61799999999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="3">
         <f>MIN(C2:C32)</f>
         <v>0.34300000000000003</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3">
         <f t="shared" ref="D33:O33" si="0">MIN(D2:D32)</f>
         <v>0.33300000000000002</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="3">
         <f t="shared" si="0"/>
         <v>0.40300000000000002</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="3">
         <f t="shared" si="0"/>
         <v>0.56799999999999995</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="3">
         <f t="shared" si="0"/>
         <v>0.255</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="3">
         <f t="shared" si="0"/>
         <v>0.38400000000000001</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="3">
         <f t="shared" si="0"/>
         <v>0.37</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="3">
         <f t="shared" si="0"/>
         <v>0.28799999999999998</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="3">
         <f t="shared" si="0"/>
         <v>0.245</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="3">
         <f>MIN(L2:L32)</f>
         <v>0.26100000000000001</v>
       </c>
-      <c r="O33">
-        <f t="shared" si="0"/>
+      <c r="M33" s="1"/>
+      <c r="T33">
+        <f>MIN(T2:T32)</f>
         <v>0.307</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="34" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D34" t="str">
+      <c r="D34" s="4" t="str">
         <f t="shared" ref="D34:H34" si="1">LOOKUP(D33,D2:D32,$B$2:$B$32)</f>
         <v>mfcc hcdf</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G34" t="str">
+      <c r="G34" s="4" t="str">
         <f t="shared" si="1"/>
         <v>mfcc hcdf</v>
       </c>
-      <c r="H34" t="str">
+      <c r="H34" s="4" t="str">
         <f t="shared" si="1"/>
         <v>mfcc</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L34" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O34" t="s">
+      <c r="M34" s="1"/>
+      <c r="T34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>32</v>
       </c>
@@ -3355,7 +3411,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D32 G1:I32 O2:O16 J1:L1 J2:K32">
+  <conditionalFormatting sqref="T2:T16 C2:D32 G1:I32 J1:L1 J2:K32">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3367,7 +3423,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D32 O2:O16 G2:L32">
+  <conditionalFormatting sqref="T2:T16 C2:D32 G2:L32">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -3380,5 +3436,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>